--- a/Task1_Employee sheet.xlsx
+++ b/Task1_Employee sheet.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/sumathi_selvaraj_capgemini_com1/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="8_{E0939D3F-F7CB-4F68-8311-A7E0FBD32A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EC438D4-CB9B-4AB5-B0D3-2E4DFB86E489}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="8_{E0939D3F-F7CB-4F68-8311-A7E0FBD32A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AA806DF-7A4A-42E1-843A-0033A2309B6F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Step1" sheetId="1" r:id="rId1"/>
-    <sheet name="Step1_Des" sheetId="2" r:id="rId2"/>
+    <sheet name="Employee sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Description" sheetId="2" r:id="rId2"/>
     <sheet name="Step2" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
@@ -881,9 +881,6 @@
     <t>user30@example.com</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
     <t>Aligned the rows and Columns</t>
   </si>
   <si>
@@ -924,6 +921,9 @@
   </si>
   <si>
     <t>(Average Rating)</t>
+  </si>
+  <si>
+    <t>Description:</t>
   </si>
 </sst>
 </file>
@@ -1162,14 +1162,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1183,11 +1188,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1967,10 +1967,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90776FFC-DAA5-42DD-8BF9-8C180BB19AC3}" name="Table1" displayName="Table1" ref="A1:I151" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <autoFilter ref="A1:I151" xr:uid="{90776FFC-DAA5-42DD-8BF9-8C180BB19AC3}"/>
@@ -6449,8 +6445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DAFE79-E9E0-4596-ABCC-6B55E5521744}">
   <dimension ref="C4:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6460,31 +6456,31 @@
   <sheetData>
     <row r="4" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C4" s="3" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C5" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C6" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C7" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -6497,8 +6493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F964D05D-591E-487F-8871-350613D5079D}">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B140" workbookViewId="0">
-      <selection activeCell="G156" sqref="G156"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A136" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6544,7 +6540,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>6</v>
@@ -11658,78 +11654,78 @@
         <v>2.74</v>
       </c>
       <c r="L152" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E153" s="19"/>
-      <c r="H153" s="25" t="s">
+      <c r="H153" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I153" s="25"/>
+      <c r="I153" s="28"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A154" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="B154" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-      <c r="F154" s="30"/>
-      <c r="H154" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="I154" s="31">
+      <c r="A154" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="B154" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="C154" s="32"/>
+      <c r="D154" s="32"/>
+      <c r="E154" s="32"/>
+      <c r="F154" s="33"/>
+      <c r="H154" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="I154" s="25">
         <f>SUM(J2:J151)</f>
         <v>9875858.5774647892</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A155" s="24"/>
-      <c r="B155" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="C155" s="26"/>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
-      <c r="F155" s="26"/>
-      <c r="H155" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="I155" s="27">
+      <c r="A155" s="29"/>
+      <c r="B155" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C155" s="30"/>
+      <c r="D155" s="30"/>
+      <c r="E155" s="30"/>
+      <c r="F155" s="30"/>
+      <c r="H155" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="I155" s="24">
         <f>COUNT(J2:J151)</f>
         <v>149</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A156" s="24"/>
-      <c r="B156" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="C156" s="26"/>
-      <c r="D156" s="26"/>
-      <c r="E156" s="26"/>
-      <c r="F156" s="26"/>
-      <c r="H156" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="I156" s="32">
+      <c r="A156" s="29"/>
+      <c r="B156" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="C156" s="30"/>
+      <c r="D156" s="30"/>
+      <c r="E156" s="30"/>
+      <c r="F156" s="30"/>
+      <c r="H156" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I156" s="26">
         <f ca="1">AVERAGE(Table14[Salary])</f>
         <v>66280.929577464791</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A157" s="24"/>
-      <c r="B157" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="C157" s="26"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
-      <c r="F157" s="26"/>
+      <c r="A157" s="29"/>
+      <c r="B157" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C157" s="30"/>
+      <c r="D157" s="30"/>
+      <c r="E157" s="30"/>
+      <c r="F157" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
